--- a/Excel/2. ACSO.xlsx
+++ b/Excel/2. ACSO.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="1" activeTab="3"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="6950" windowWidth="18350"/>
   </bookViews>
   <sheets>
-    <sheet name="API Get List Message Template" sheetId="1" r:id="rId1"/>
-    <sheet name="API Add Tenant" sheetId="2" r:id="rId2"/>
-    <sheet name="API Generate New API Key" sheetId="3" r:id="rId3"/>
-    <sheet name="API Update Tenant Partner C." sheetId="5" r:id="rId4"/>
-    <sheet name="API Message Callback" sheetId="6" r:id="rId5"/>
-    <sheet name="API Process Message Callback" sheetId="7" r:id="rId6"/>
-    <sheet name="API Process Message Requesst" sheetId="8" r:id="rId7"/>
-    <sheet name="API Send Message" sheetId="9" r:id="rId8"/>
+    <sheet name="API Get List Message Template" r:id="rId1" sheetId="1"/>
+    <sheet name="API Add Tenant" r:id="rId2" sheetId="2"/>
+    <sheet name="API Generate New API Key" r:id="rId3" sheetId="3"/>
+    <sheet name="API Update Tenant Partner C." r:id="rId4" sheetId="5"/>
+    <sheet name="API Message Callback" r:id="rId5" sheetId="6"/>
+    <sheet name="API Process Message Callback" r:id="rId6" sheetId="7"/>
+    <sheet name="API Process Message Requesst" r:id="rId7" sheetId="8"/>
+    <sheet name="API Send Message" r:id="rId8" sheetId="9"/>
   </sheets>
   <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="149">
   <si>
     <t>Status</t>
   </si>
@@ -151,7 +151,7 @@
   <si>
     <t>{
     "HeaderObj": {
-        "ResponseTime": "5 ms",
+        "ResponseTime": "6 ms",
         "StatusCode": "409",
         "Message": "Tenant code ADINS already existed",
         "ErrorMessages": null
@@ -164,20 +164,17 @@
   </si>
   <si>
     <t>{
-    "ApiKey": "465eb8fa-76bc-4d26-8a74-4225736d6c47"
+    "ApiKey": "cc9f001f-2d48-4d18-ab8c-af86e8fcd5d7"
 }</t>
   </si>
   <si>
-    <t>0.018 second</t>
-  </si>
-  <si>
     <t>0.024 second</t>
   </si>
   <si>
-    <t>0.026 second</t>
-  </si>
-  <si>
-    <t>0.086 second</t>
+    <t>0.036 second</t>
+  </si>
+  <si>
+    <t>0.05 second</t>
   </si>
   <si>
     <t>loginId Authentication</t>
@@ -216,7 +213,7 @@
     <t>QE</t>
   </si>
   <si>
-    <t>QE3</t>
+    <t>QE4</t>
   </si>
   <si>
     <t>TOKEN TOKEN</t>
@@ -236,7 +233,7 @@
   <si>
     <t>{
     "HeaderObj": {
-        "ResponseTime": "10 ms",
+        "ResponseTime": "7 ms",
         "StatusCode": "404",
         "Message": "Tenant code QE50 Not Found",
         "ErrorMessages": null
@@ -249,20 +246,20 @@
   </si>
   <si>
     <t>{
-    "ApiKey": "13a6c4cb-3ba1-4b4a-95e4-12418972345b"
+    "ApiKey": "f76608d4-0e2a-46c6-9832-67846b1267aa"
 }</t>
   </si>
   <si>
-    <t>0.124 second</t>
-  </si>
-  <si>
-    <t>0.013 second</t>
-  </si>
-  <si>
-    <t>0.047 second</t>
-  </si>
-  <si>
-    <t>0.27 second</t>
+    <t>0.026 second</t>
+  </si>
+  <si>
+    <t>0.043 second</t>
+  </si>
+  <si>
+    <t>0.021 second</t>
+  </si>
+  <si>
+    <t>0.239 second</t>
   </si>
   <si>
     <t>QE50</t>
@@ -310,6 +307,9 @@
       </rPr>
       <t>Hit dengan ada spasi dibelakang user id</t>
     </r>
+  </si>
+  <si>
+    <t>Hit dengan ada spasi didepan user id</t>
   </si>
   <si>
     <r>
@@ -346,10 +346,138 @@
     <t>Success</t>
   </si>
   <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "6 ms",
+        "StatusCode": "404",
+        "Message": "Tenant code QE50 Not Found",
+        "ErrorMessages": null
+    },
+    "StatusCode": "404",
+    "Message": "Tenant code QE50 Not Found",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "32 ms",
+        "StatusCode": "200",
+        "Message": "Success",
+        "ErrorMessages": null
+    },
+    "StatusCode": "200",
+    "Message": "Success",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "7 ms",
+        "StatusCode": "602",
+        "Message": "System does not support partner HALOSISS",
+        "ErrorMessages": null
+    },
+    "StatusCode": "602",
+    "Message": "System does not support partner HALOSISS",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "9 ms",
+        "StatusCode": "603",
+        "Message": "The password provided does not match the confirmed password",
+        "ErrorMessages": null
+    },
+    "StatusCode": "603",
+    "Message": "The password provided does not match the confirmed password",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "9 ms",
+        "StatusCode": "601",
+        "Message": "UserID cannot starts or ends with space",
+        "ErrorMessages": null
+    },
+    "StatusCode": "601",
+    "Message": "UserID cannot starts or ends with space",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "7 ms",
+        "StatusCode": "601",
+        "Message": "Password cannot starts or ends with space",
+        "ErrorMessages": null
+    },
+    "StatusCode": "601",
+    "Message": "Password cannot starts or ends with space",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "10 ms",
+        "StatusCode": "601",
+        "Message": "Password cannot starts or ends with space",
+        "ErrorMessages": null
+    },
+    "StatusCode": "601",
+    "Message": "Password cannot starts or ends with space",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>0.012 second</t>
+  </si>
+  <si>
+    <t>0.029 second</t>
+  </si>
+  <si>
+    <t>0.031 second</t>
+  </si>
+  <si>
+    <t>0.053 second</t>
+  </si>
+  <si>
+    <t>0.047 second</t>
+  </si>
+  <si>
+    <t>0.022 second</t>
+  </si>
+  <si>
+    <t>0.037 second</t>
+  </si>
+  <si>
+    <t>0.028 second</t>
+  </si>
+  <si>
+    <t>0.034 second</t>
+  </si>
+  <si>
     <t>userID</t>
   </si>
   <si>
     <t xml:space="preserve">MALVIN@AD-INS.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MALVIN@AD-INS.COM</t>
   </si>
   <si>
     <t xml:space="preserve"> Password123!</t>
@@ -538,6 +666,109 @@
   </si>
   <si>
     <t>requestUuid</t>
+  </si>
+  <si>
+    <t>-;&lt;null&gt;</t>
+  </si>
+  <si>
+    <t>0.019 second</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "41 ms",
+        "StatusCode": "200",
+        "Message": "Success",
+        "ErrorMessages": null
+    },
+    "StatusCode": "200",
+    "Message": "Success",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>0.057 second</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "9 ms",
+        "StatusCode": "602",
+        "Message": "System does not support partner HALOSISS",
+        "ErrorMessages": null
+    },
+    "StatusCode": "602",
+    "Message": "System does not support partner HALOSISS",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>0.033 second</t>
+  </si>
+  <si>
+    <t>;&lt;System does not support partner HALOSISS&gt;</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "10 ms",
+        "StatusCode": "603",
+        "Message": "The password provided does not match the confirmed password",
+        "ErrorMessages": null
+    },
+    "StatusCode": "603",
+    "Message": "The password provided does not match the confirmed password",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>0.044 second</t>
+  </si>
+  <si>
+    <t>;&lt;The password provided does not match the confirmed password&gt;</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "10 ms",
+        "StatusCode": "601",
+        "Message": "UserID cannot starts or ends with space",
+        "ErrorMessages": null
+    },
+    "StatusCode": "601",
+    "Message": "UserID cannot starts or ends with space",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>;&lt;UserID cannot starts or ends with space&gt;</t>
+  </si>
+  <si>
+    <t>{
+    "HeaderObj": {
+        "ResponseTime": "8 ms",
+        "StatusCode": "601",
+        "Message": "Password cannot starts or ends with space",
+        "ErrorMessages": null
+    },
+    "StatusCode": "601",
+    "Message": "Password cannot starts or ends with space",
+    "ErrorMessages": null,
+    "RowVersion": null
+}</t>
+  </si>
+  <si>
+    <t>0.042 second</t>
+  </si>
+  <si>
+    <t>;&lt;Password cannot starts or ends with space&gt;</t>
+  </si>
+  <si>
+    <t>0.035 second</t>
   </si>
 </sst>
 </file>
@@ -1067,241 +1298,238 @@
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="3" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="4" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="5" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="6" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="49">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="6"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="6"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="6"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="6"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="4" name="Currency" xfId="2"/>
+    <cellStyle builtinId="5" name="Percent" xfId="3"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="10" name="Note" xfId="8"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="9"/>
+    <cellStyle builtinId="15" name="Title" xfId="10"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="11"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="12"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="13"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="14"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="15"/>
+    <cellStyle builtinId="20" name="Input" xfId="16"/>
+    <cellStyle builtinId="21" name="Output" xfId="17"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="18"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="19"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="20"/>
+    <cellStyle builtinId="25" name="Total" xfId="21"/>
+    <cellStyle builtinId="26" name="Good" xfId="22"/>
+    <cellStyle builtinId="27" name="Bad" xfId="23"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="24"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="25"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="26"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="27"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="28"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="29"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="30"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="31"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="32"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="33"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="34"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="36"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="37"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="38"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="39"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="40"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="41"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="42"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="43"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="44"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="45"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
     <cellStyle name="Normal 2" xfId="49"/>
   </cellStyles>
   <dxfs count="5">
@@ -1339,7 +1567,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1353,10 +1581,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1520,21 +1748,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1551,7 +1779,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1604,18 +1832,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1634,7 +1862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:2">
+    <row ht="29" r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1752,13 +1980,13 @@
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
@@ -1766,7 +1994,7 @@
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" s="12" customFormat="1" spans="1:2">
+    <row customFormat="1" r="25" s="12" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1774,13 +2002,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" s="12" customFormat="1" spans="1:2">
+    <row customFormat="1" r="26" s="12" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" s="12" customFormat="1" spans="1:2">
+    <row customFormat="1" r="27" s="12" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1790,60 +2018,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="41">
+    <cfRule dxfId="0" priority="41" type="expression">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule dxfId="1" priority="40" type="expression">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule dxfId="2" priority="39" type="expression">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule dxfId="3" priority="38" type="expression">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule dxfId="0" priority="28" type="expression">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule dxfId="1" priority="27" type="expression">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule dxfId="2" priority="26" type="expression">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="25">
+    <cfRule dxfId="3" priority="25" type="expression">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="4" priority="37">
+    <cfRule dxfId="4" priority="37" type="expression">
       <formula>A$49="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.8181818181818" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.0909090909091" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="15.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:5">
+    <row customHeight="1" ht="26" r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,24 +2088,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="43.5" spans="1:5">
+    <row ht="43.5" r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:5">
+    <row ht="43.5" r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1911,20 +2139,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="406" spans="1:5">
+    <row ht="406" r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1939,10 +2167,10 @@
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1956,70 +2184,70 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2036,50 +2264,50 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>56</v>
+      <c r="C14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2091,7 +2319,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:5">
+    <row customFormat="1" r="17" s="12" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -2108,18 +2336,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1" spans="1:5">
+    <row customFormat="1" r="18" s="12" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" s="12" customFormat="1" spans="1:5">
+    <row customFormat="1" r="19" s="12" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2138,101 +2366,101 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="169">
+    <cfRule dxfId="0" priority="181" type="expression">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="168">
+    <cfRule dxfId="1" priority="180" type="expression">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="167">
+    <cfRule dxfId="2" priority="179" type="expression">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="166">
+    <cfRule dxfId="3" priority="178" type="expression">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="136">
+    <cfRule dxfId="0" priority="148" type="expression">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="135">
+    <cfRule dxfId="1" priority="147" type="expression">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="134">
+    <cfRule dxfId="2" priority="146" type="expression">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="133">
+    <cfRule dxfId="3" priority="145" type="expression">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule dxfId="0" priority="12" type="expression">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule dxfId="1" priority="11" type="expression">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule dxfId="2" priority="10" type="expression">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule dxfId="3" priority="9" type="expression">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule dxfId="0" priority="8" type="expression">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule dxfId="1" priority="7" type="expression">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule dxfId="2" priority="6" type="expression">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule dxfId="3" priority="5" type="expression">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule dxfId="1" priority="3" type="expression">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule dxfId="2" priority="2" type="expression">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule dxfId="3" priority="1" type="expression">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="4" priority="165">
+    <cfRule dxfId="4" priority="177" type="expression">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="22.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="28.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="22.3636363636364" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.0909090909091" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.7272727272727" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.3636363636364" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2263,13 +2491,13 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="58" spans="1:5">
+    <row ht="43.5" r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2277,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2314,10 +2542,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2325,16 +2553,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2348,70 +2576,70 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2428,33 +2656,33 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>57</v>
+      <c r="B14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2466,7 +2694,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" s="12" customFormat="1" spans="1:5">
+    <row customFormat="1" r="16" s="12" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2483,18 +2711,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:5">
+    <row customFormat="1" r="17" s="12" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" s="12" customFormat="1" spans="1:5">
+    <row customFormat="1" r="18" s="12" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2513,1505 +2741,100 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="89">
+    <cfRule dxfId="0" priority="101" type="expression">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="88">
+    <cfRule dxfId="1" priority="100" type="expression">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule dxfId="2" priority="99" type="expression">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule dxfId="3" priority="98" type="expression">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="84">
+    <cfRule dxfId="0" priority="96" type="expression">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="83">
+    <cfRule dxfId="1" priority="95" type="expression">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="82">
+    <cfRule dxfId="2" priority="94" type="expression">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="81">
+    <cfRule dxfId="3" priority="93" type="expression">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule dxfId="0" priority="12" type="expression">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule dxfId="1" priority="11" type="expression">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule dxfId="2" priority="10" type="expression">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule dxfId="3" priority="9" type="expression">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule dxfId="0" priority="8" type="expression">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule dxfId="1" priority="7" type="expression">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule dxfId="2" priority="6" type="expression">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule dxfId="3" priority="5" type="expression">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule dxfId="1" priority="3" type="expression">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule dxfId="2" priority="2" type="expression">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule dxfId="3" priority="1" type="expression">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="4" priority="85">
+    <cfRule dxfId="4" priority="97" type="expression">
       <formula>A$40="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J1" sqref="B1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
-    <col min="2" max="10" width="15.1818181818182" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="11" customFormat="1" ht="72.5" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="1:10">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" s="12" customFormat="1" spans="1:10">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" s="12" customFormat="1" spans="1:10">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="53">
-      <formula>A1&lt;&gt;A4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="52">
-      <formula>A1=A4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>A1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
-      <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="48">
-      <formula>B1&lt;&gt;B4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="47">
-      <formula>B1=B4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="46">
-      <formula>B1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="45">
-      <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="44">
-      <formula>C1&lt;&gt;C4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="43">
-      <formula>C1=C4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
-      <formula>C1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="41">
-      <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="3" priority="37">
-      <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
-      <formula>D1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="39">
-      <formula>D1=D4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="40">
-      <formula>D1&lt;&gt;D4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>E1&lt;&gt;E4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>E1=E4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>E1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="3" priority="21">
-      <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
-      <formula>F1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="23">
-      <formula>F1=F4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>F1&lt;&gt;F4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="3" priority="17">
-      <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>G1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="19">
-      <formula>G1=G4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>G1&lt;&gt;G4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="3" priority="13">
-      <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
-      <formula>H1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>H1=H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="16">
-      <formula>H1&lt;&gt;H4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>I1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>I1=I4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>I1&lt;&gt;I4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>OR(J1="",J1="Unexecuted",J1="Status")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>J1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J1=J4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>J1&lt;&gt;J4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="4" priority="49">
-      <formula>A$45="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1" display="MALVIN@AD-INS.COM "/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="8" width="15.1818181818182" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="72.5" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" s="12" customFormat="1" spans="1:8">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" s="12" customFormat="1" spans="1:8">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" s="12" customFormat="1" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="37">
-      <formula>A1&lt;&gt;A4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="36">
-      <formula>A1=A4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="35">
-      <formula>A1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
-      <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="32">
-      <formula>B1&lt;&gt;B4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="31">
-      <formula>B1=B4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
-      <formula>B1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="29">
-      <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>C1&lt;&gt;C4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="23">
-      <formula>C1=C4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
-      <formula>C1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="21">
-      <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>D1&lt;&gt;D4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="19">
-      <formula>D1=D4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>D1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="17">
-      <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="0" priority="16">
-      <formula>E1&lt;&gt;E4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>E1=E4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
-      <formula>E1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13">
-      <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>F1&lt;&gt;F4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>F1=F4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>F1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>G1&lt;&gt;G4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>G1=G4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>G1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>H1&lt;&gt;H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H1=H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>H1="WARNING"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="4" priority="33">
-      <formula>A$56="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="11" width="15.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5454545454545" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.1818181818182" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="44.3636363636364" collapsed="true"/>
+    <col min="5" max="11" customWidth="true" width="15.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4019,34 +2842,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4054,37 +2877,37 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="11" customFormat="1" ht="87" spans="1:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="72.5" r="3" s="11" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4092,31 +2915,31 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4133,7 +2956,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -4158,31 +2981,71 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2"/>
@@ -4214,6 +3077,1371 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row customFormat="1" r="21" s="12" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" s="12" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row customFormat="1" r="23" s="12" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule dxfId="0" priority="141" type="expression">
+      <formula>A1&lt;&gt;A4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="140" type="expression">
+      <formula>A1=A4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="139" type="expression">
+      <formula>A1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="138" type="expression">
+      <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:J1">
+    <cfRule dxfId="0" priority="8" type="expression">
+      <formula>B1&lt;&gt;B4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="7" type="expression">
+      <formula>B1=B4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="6" type="expression">
+      <formula>B1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="5" type="expression">
+      <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule dxfId="0" priority="4" type="expression">
+      <formula>K1&lt;&gt;K4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="3" type="expression">
+      <formula>K1=K4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="2" type="expression">
+      <formula>K1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="1" type="expression">
+      <formula>OR(K1="",K1="Unexecuted",K1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule dxfId="4" priority="137" type="expression">
+      <formula>A$45="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink display="MALVIN@AD-INS.COM " r:id="rId1" ref="H16" tooltip="mailto:MALVIN@AD-INS.COM "/>
+    <hyperlink display=" MALVIN@AD-INS.COM" r:id="rId1" ref="I16"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.5454545454545" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="15.1818181818182" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="72.5" r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row customFormat="1" r="32" s="12" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" r="33" s="12" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row customFormat="1" r="34" s="12" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule dxfId="0" priority="37" type="expression">
+      <formula>A1&lt;&gt;A4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="36" type="expression">
+      <formula>A1=A4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="35" type="expression">
+      <formula>A1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="34" type="expression">
+      <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule dxfId="0" priority="32" type="expression">
+      <formula>B1&lt;&gt;B4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="31" type="expression">
+      <formula>B1=B4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="30" type="expression">
+      <formula>B1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="29" type="expression">
+      <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule dxfId="0" priority="24" type="expression">
+      <formula>C1&lt;&gt;C4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="23" type="expression">
+      <formula>C1=C4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="22" type="expression">
+      <formula>C1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="21" type="expression">
+      <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule dxfId="0" priority="20" type="expression">
+      <formula>D1&lt;&gt;D4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="19" type="expression">
+      <formula>D1=D4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="18" type="expression">
+      <formula>D1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="17" type="expression">
+      <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule dxfId="0" priority="16" type="expression">
+      <formula>E1&lt;&gt;E4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="15" type="expression">
+      <formula>E1=E4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="14" type="expression">
+      <formula>E1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="13" type="expression">
+      <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule dxfId="0" priority="12" type="expression">
+      <formula>F1&lt;&gt;F4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="11" type="expression">
+      <formula>F1=F4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="10" type="expression">
+      <formula>F1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="9" type="expression">
+      <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule dxfId="0" priority="8" type="expression">
+      <formula>G1&lt;&gt;G4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="7" type="expression">
+      <formula>G1=G4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="6" type="expression">
+      <formula>G1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="5" type="expression">
+      <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule dxfId="0" priority="4" type="expression">
+      <formula>H1&lt;&gt;H4</formula>
+    </cfRule>
+    <cfRule dxfId="1" priority="3" type="expression">
+      <formula>H1=H4</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="2" type="expression">
+      <formula>H1="WARNING"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="1" type="expression">
+      <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule dxfId="4" priority="33" type="expression">
+      <formula>A$56="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.5454545454545" collapsed="true"/>
+    <col min="2" max="11" customWidth="true" width="15.1818181818182" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="87" r="3" s="11" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8"/>
@@ -4349,7 +4577,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -4364,7 +4592,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -4394,7 +4622,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4409,7 +4637,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -4424,7 +4652,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -4439,7 +4667,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4454,7 +4682,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4482,7 +4710,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" s="12" customFormat="1" spans="1:11">
+    <row customFormat="1" r="27" s="12" spans="1:11">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -4517,7 +4745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" s="12" customFormat="1" spans="1:11">
+    <row customFormat="1" r="28" s="12" spans="1:11">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4532,7 +4760,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" s="12" customFormat="1" spans="1:11">
+    <row customFormat="1" r="29" s="12" spans="1:11">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4569,173 +4797,173 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="45">
+    <cfRule dxfId="0" priority="45" type="expression">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule dxfId="1" priority="44" type="expression">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule dxfId="2" priority="43" type="expression">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule dxfId="3" priority="42" type="expression">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="40">
+    <cfRule dxfId="0" priority="40" type="expression">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule dxfId="1" priority="39" type="expression">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule dxfId="2" priority="38" type="expression">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37">
+    <cfRule dxfId="3" priority="37" type="expression">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="36">
+    <cfRule dxfId="0" priority="36" type="expression">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule dxfId="1" priority="35" type="expression">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule dxfId="2" priority="34" type="expression">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="33">
+    <cfRule dxfId="3" priority="33" type="expression">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="0" priority="32">
+    <cfRule dxfId="0" priority="32" type="expression">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule dxfId="1" priority="31" type="expression">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule dxfId="2" priority="30" type="expression">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="29">
+    <cfRule dxfId="3" priority="29" type="expression">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule dxfId="0" priority="28" type="expression">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule dxfId="1" priority="27" type="expression">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule dxfId="2" priority="26" type="expression">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="25">
+    <cfRule dxfId="3" priority="25" type="expression">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="0" priority="24">
+    <cfRule dxfId="0" priority="24" type="expression">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule dxfId="1" priority="23" type="expression">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule dxfId="2" priority="22" type="expression">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="21">
+    <cfRule dxfId="3" priority="21" type="expression">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="0" priority="20">
+    <cfRule dxfId="0" priority="20" type="expression">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule dxfId="1" priority="19" type="expression">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule dxfId="2" priority="18" type="expression">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule dxfId="3" priority="17" type="expression">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule dxfId="0" priority="16" type="expression">
       <formula>H1&lt;&gt;H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule dxfId="1" priority="15" type="expression">
       <formula>H1=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule dxfId="2" priority="14" type="expression">
       <formula>H1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule dxfId="3" priority="13" type="expression">
       <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule dxfId="0" priority="12" type="expression">
       <formula>I1&lt;&gt;I4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule dxfId="1" priority="11" type="expression">
       <formula>I1=I4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule dxfId="2" priority="10" type="expression">
       <formula>I1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule dxfId="3" priority="9" type="expression">
       <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule dxfId="0" priority="8" type="expression">
       <formula>J1&lt;&gt;J4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule dxfId="1" priority="7" type="expression">
       <formula>J1=J4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule dxfId="2" priority="6" type="expression">
       <formula>J1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule dxfId="3" priority="5" type="expression">
       <formula>OR(J1="",J1="Unexecuted",J1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>K1&lt;&gt;K4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule dxfId="1" priority="3" type="expression">
       <formula>K1=K4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule dxfId="2" priority="2" type="expression">
       <formula>K1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule dxfId="3" priority="1" type="expression">
       <formula>OR(K1="",K1="Unexecuted",K1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="4" priority="41">
+    <cfRule dxfId="4" priority="41" type="expression">
       <formula>A$51="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -4743,8 +4971,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4763,7 +4991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:2">
+    <row ht="29" r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4857,79 +5085,79 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B30" s="9"/>
     </row>
@@ -4963,47 +5191,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule dxfId="0" priority="9" type="expression">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule dxfId="1" priority="8" type="expression">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule dxfId="2" priority="7" type="expression">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule dxfId="3" priority="6" type="expression">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule dxfId="1" priority="3" type="expression">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule dxfId="2" priority="2" type="expression">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule dxfId="3" priority="1" type="expression">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule dxfId="4" priority="5" type="expression">
       <formula>A$56="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -5011,8 +5239,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5031,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:2">
+    <row ht="29" r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5125,13 +5353,13 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B19" s="9"/>
     </row>
@@ -5143,19 +5371,19 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B23" s="9"/>
     </row>
@@ -5189,39 +5417,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule dxfId="0" priority="9" type="expression">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule dxfId="1" priority="8" type="expression">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule dxfId="2" priority="7" type="expression">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule dxfId="3" priority="6" type="expression">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule dxfId="1" priority="3" type="expression">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule dxfId="2" priority="2" type="expression">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule dxfId="3" priority="1" type="expression">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule dxfId="4" priority="5" type="expression">
       <formula>A$49="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>